--- a/Student_Data.xlsx
+++ b/Student_Data.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1270,33 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lukka Sir</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7455077454</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vishnu20@gmail.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vishnu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9756815982</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
